--- a/tests/DataSetReportExtensionsTests/Reports/template.xlsx
+++ b/tests/DataSetReportExtensionsTests/Reports/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\excel4reports\tests\ReportExtensionsTests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\excel4reports\tests\DataSetReportExtensionsTests\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D673F875-0361-455B-86CC-5EDE56BD958E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B0999-A827-4B37-8124-53C88DF24566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2B25099-53B1-4ADB-A72B-374071EBDA1B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>AAA</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>%myTable02.t4%</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
   </si>
 </sst>
 </file>
@@ -217,6 +226,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{672DA92E-7C1A-4ECE-98C9-03B2D5F01F43}" name="Table1" displayName="Table1" ref="C19:E22" totalsRowShown="0">
+  <autoFilter ref="C19:E22" xr:uid="{28C1F926-B716-4E4E-8962-D5467636CC11}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EC14F737-D6FB-4F99-A070-721BA65D66CF}" name="aaa"/>
+    <tableColumn id="2" xr3:uid="{0EBF91B3-1792-4C4F-B18E-66C224018304}" name="bbb"/>
+    <tableColumn id="3" xr3:uid="{976AA860-790A-43AC-8300-CA7A0A323660}" name="ccc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAFA29A-05A2-46E2-8C4C-E260686FDE1D}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +637,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>